--- a/Comps_project/TestCase.xlsx
+++ b/Comps_project/TestCase.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="6855"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6855"/>
   </bookViews>
   <sheets>
     <sheet name="Comps" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="39">
   <si>
     <t>TestCase</t>
   </si>
@@ -32,9 +32,6 @@
     <t>Keyword</t>
   </si>
   <si>
-    <t>Object</t>
-  </si>
-  <si>
     <t>value</t>
   </si>
   <si>
@@ -123,6 +120,27 @@
   </si>
   <si>
     <t>Xpath</t>
+  </si>
+  <si>
+    <t>grid_testcompany</t>
+  </si>
+  <si>
+    <t>ASSERTPAGING</t>
+  </si>
+  <si>
+    <t>paging_leftgrid</t>
+  </si>
+  <si>
+    <t>DOUBLECLICK</t>
+  </si>
+  <si>
+    <t>ObjectName</t>
+  </si>
+  <si>
+    <t>drpclickedvalue_consumer_subsector</t>
+  </si>
+  <si>
+    <t>drpclickedvalue_portfolio_Apparel</t>
   </si>
 </sst>
 </file>
@@ -488,10 +506,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E34"/>
+  <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -511,18 +529,18 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -532,39 +550,39 @@
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>13</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E5" s="2">
         <v>123456</v>
@@ -573,20 +591,20 @@
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -594,7 +612,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -603,42 +621,42 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="5" t="s">
         <v>13</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E11" s="4">
         <v>123456</v>
@@ -647,20 +665,20 @@
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E12" s="4"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -671,20 +689,20 @@
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E14" s="4"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -695,20 +713,20 @@
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E16" s="4"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
@@ -719,35 +737,35 @@
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E18" s="4"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
@@ -758,44 +776,44 @@
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E21" s="4"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="4" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E23" s="4"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
@@ -806,68 +824,68 @@
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E25" s="4"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
       <c r="E26" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E27" s="4"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
       <c r="E28" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E29" s="4"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
@@ -878,20 +896,20 @@
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E31" s="4"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="B32" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
@@ -902,26 +920,159 @@
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="E33" s="4"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
       <c r="B34" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
       <c r="E34" s="4">
         <v>2</v>
       </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="4"/>
+      <c r="B35" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E35" s="4"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="4"/>
+      <c r="B36" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="4"/>
+      <c r="B37" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E37" s="4"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="4"/>
+      <c r="B38" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="4"/>
+      <c r="B39" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E39" s="4"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="4"/>
+      <c r="B40" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="4"/>
+      <c r="B41" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E41" s="4"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="4"/>
+      <c r="B42" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="4"/>
+      <c r="B43" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E43" s="4"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="4"/>
+      <c r="B44" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="4"/>
+      <c r="B45" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E45" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>
